--- a/output/part1/grs_size_bm_inv3.xlsx
+++ b/output/part1/grs_size_bm_inv3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.971127335314916</v>
+        <v>12.73660532795967</v>
       </c>
       <c r="B2" t="n">
-        <v>2.157163336846679e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07154434227725975</v>
+        <v>0.008330174690077187</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.33153603518613</v>
+        <v>1.225150170186294</v>
       </c>
       <c r="E2" t="n">
-        <v>693.3497899723059</v>
+        <v>1.500992939507504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.014454766947887</v>
+        <v>9.604651620884498</v>
       </c>
       <c r="B3" t="n">
-        <v>4.364800076928077e-09</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0566111923681647</v>
+        <v>0.006940735173005978</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.83546517291817</v>
+        <v>1.020800066600701</v>
       </c>
       <c r="E3" t="n">
-        <v>434.1166089718861</v>
+        <v>1.042032775971996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.783498419516672</v>
+        <v>11.96895982805127</v>
       </c>
       <c r="B4" t="n">
-        <v>1.429845197797874e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05295647817479657</v>
+        <v>0.008223955695972059</v>
       </c>
       <c r="D4" t="n">
-        <v>-19.49036596006865</v>
+        <v>1.209528142612259</v>
       </c>
       <c r="E4" t="n">
-        <v>379.8743652574027</v>
+        <v>1.46295832777106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.404651855160963</v>
+        <v>11.08076194571725</v>
       </c>
       <c r="B5" t="n">
-        <v>2.520206265899105e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0973222115408327</v>
+        <v>0.008097047406838982</v>
       </c>
       <c r="D5" t="n">
-        <v>-35.81895141729434</v>
+        <v>1.190863262484997</v>
       </c>
       <c r="E5" t="n">
-        <v>1282.997280634492</v>
+        <v>1.41815530993641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.039738704488067</v>
+        <v>8.947102642240461</v>
       </c>
       <c r="B6" t="n">
-        <v>6.522888711391062e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04645706958202085</v>
+        <v>0.006572778634904253</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.09829125338051</v>
+        <v>0.9666833125050783</v>
       </c>
       <c r="E6" t="n">
-        <v>292.3515637854283</v>
+        <v>0.934476626675791</v>
       </c>
     </row>
   </sheetData>
